--- a/node_modules/write-excel-file/test-output/test-cells-sticky-row.xlsx
+++ b/node_modules/write-excel-file/test-output/test-cells-sticky-row.xlsx
@@ -155,7 +155,7 @@
         <v>180</v>
       </c>
       <c r="B2" s="4">
-        <v>45556.54950616898</v>
+        <v>45706.51544939815</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -172,7 +172,7 @@
         <v>200.5</v>
       </c>
       <c r="B3" s="7">
-        <v>45556.54950616898</v>
+        <v>45706.51544939815</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>4</v>
